--- a/2023/england_league-one_2023-2024.xlsx
+++ b/2023/england_league-one_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V87"/>
+  <dimension ref="A1:V90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,14 +3065,14 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>1.85</v>
+        <v>2.07</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.96</v>
+        <v>2.28</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>15/08/2023 19:25</t>
+          <t>15/08/2023 20:43</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.59</v>
+        <v>3.57</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.43</v>
+        <v>3.55</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>15/08/2023 19:25</t>
+          <t>15/08/2023 20:41</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>4.41</v>
+        <v>3.56</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>4.27</v>
+        <v>3.18</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>15/08/2023 19:25</t>
+          <t>15/08/2023 20:43</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/derby-oxford-utd/44VuOy9t/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/charlton-bristol-rovers/SrvESH0P/</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -3157,14 +3157,14 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>2.07</v>
+        <v>2.68</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.28</v>
+        <v>2.71</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>15/08/2023 20:43</t>
+          <t>15/08/2023 20:02</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.57</v>
+        <v>3.26</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,15 +3188,15 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.55</v>
+        <v>3.24</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>15/08/2023 20:41</t>
+          <t>15/08/2023 18:42</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>3.56</v>
+        <v>2.76</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>3.18</v>
+        <v>2.81</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>15/08/2023 20:43</t>
+          <t>15/08/2023 20:02</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/charlton-bristol-rovers/SrvESH0P/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/carlisle-wigan/EujW3YNO/</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -3617,14 +3617,14 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>2.68</v>
+        <v>1.85</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.71</v>
+        <v>1.96</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>15/08/2023 20:02</t>
+          <t>15/08/2023 19:25</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.26</v>
+        <v>3.59</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.24</v>
+        <v>3.43</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>15/08/2023 18:42</t>
+          <t>15/08/2023 19:25</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>2.76</v>
+        <v>4.41</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>2.81</v>
+        <v>4.27</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>15/08/2023 20:02</t>
+          <t>15/08/2023 19:25</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/carlisle-wigan/EujW3YNO/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/derby-oxford-utd/44VuOy9t/</t>
         </is>
       </c>
     </row>
@@ -8458,6 +8458,282 @@
       <c r="V87" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/england/league-one/wycombe-blackpool/0fBYasqC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45188.86458333334</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>2</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Portsmouth</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>3</v>
+      </c>
+      <c r="J88" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>19/09/2023 20:44</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>19/09/2023 20:44</t>
+        </is>
+      </c>
+      <c r="R88" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T88" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>19/09/2023 20:44</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/barnsley-portsmouth/rDiXc0dR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45188.86458333334</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>3</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Cheltenham</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>19/09/2023 20:41</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>19/09/2023 20:41</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T89" t="n">
+        <v>7</v>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>19/09/2023 20:41</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/peterborough-cheltenham/UXVFkx47/</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45188.86458333334</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Port Vale</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>2</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Burton</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>3</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>19/09/2023 20:41</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>19/09/2023 20:41</t>
+        </is>
+      </c>
+      <c r="R90" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T90" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>19/09/2023 20:41</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/port-vale-burton/ryzKldJD/</t>
         </is>
       </c>
     </row>

--- a/2023/england_league-one_2023-2024.xlsx
+++ b/2023/england_league-one_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V90"/>
+  <dimension ref="A1:V102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,71 +1677,71 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="I14" t="n">
         <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>3.29</v>
+        <v>1.96</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>06/08/2023 23:42</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>3.41</v>
+        <v>2.06</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>12/08/2023 15:57</t>
+          <t>12/08/2023 15:24</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.36</v>
+        <v>3.66</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>06/08/2023 23:42</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.37</v>
+        <v>3.22</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>12/08/2023 15:57</t>
+          <t>12/08/2023 15:24</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>2.26</v>
+        <v>3.82</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>06/08/2023 23:42</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>12/08/2023 15:11</t>
+          <t>12/08/2023 15:24</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bristol-rovers-barnsley/tfx4ERuF/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/wigan-northampton/vmTE9xfm/</t>
         </is>
       </c>
     </row>
@@ -1769,71 +1769,71 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Derby</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>3</v>
-      </c>
       <c r="J15" t="n">
-        <v>5.17</v>
+        <v>2.39</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>06/08/2023 23:42</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>4.14</v>
+        <v>2.73</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>12/08/2023 15:43</t>
+          <t>12/08/2023 15:34</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.9</v>
+        <v>3.35</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>06/08/2023 23:42</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.66</v>
+        <v>3.38</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>12/08/2023 15:43</t>
+          <t>12/08/2023 00:29</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>1.68</v>
+        <v>3.06</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>06/08/2023 23:42</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>1.93</v>
+        <v>2.7</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>12/08/2023 15:43</t>
+          <t>12/08/2023 13:38</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/burton-derby/hW4XdaAs/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/port-vale-reading/84xqFbWP/</t>
         </is>
       </c>
     </row>
@@ -1861,30 +1861,30 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.55</v>
+        <v>1.65</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>06/08/2023 23:12</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.24</v>
+        <v>1.92</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1892,15 +1892,15 @@
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.31</v>
+        <v>4</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>06/08/2023 23:12</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.41</v>
+        <v>4.05</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1908,15 +1908,15 @@
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.87</v>
+        <v>4.78</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>06/08/2023 23:12</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>3.4</v>
+        <v>3.76</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/exeter-blackpool/Qq3uewuf/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/peterborough-charlton/UDwuGvHJ/</t>
         </is>
       </c>
     </row>
@@ -1953,30 +1953,30 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Carlisle</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Cambridge Utd</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v>2</v>
-      </c>
       <c r="J17" t="n">
-        <v>2.55</v>
+        <v>2.08</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>06/08/2023 23:12</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.24</v>
+        <v>1.93</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1984,15 +1984,15 @@
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.16</v>
+        <v>3.45</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>06/08/2023 23:12</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.32</v>
+        <v>3.59</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -2000,15 +2000,15 @@
         </is>
       </c>
       <c r="R17" t="n">
-        <v>3</v>
+        <v>3.67</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>06/08/2023 23:12</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>3.49</v>
+        <v>4.18</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-cambridge-utd/rLcpfcf0/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-carlisle/S8adievJ/</t>
         </is>
       </c>
     </row>
@@ -2045,71 +2045,71 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="G18" t="n">
+        <v>3</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Wycombe</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Bolton</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
-        <v>3</v>
-      </c>
       <c r="J18" t="n">
-        <v>3.44</v>
+        <v>2.77</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>05/08/2023 18:24</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>4.44</v>
+        <v>2.5</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>12/08/2023 15:17</t>
+          <t>12/08/2023 15:32</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.25</v>
+        <v>3.43</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>05/08/2023 18:24</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.64</v>
+        <v>3.26</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>12/08/2023 15:34</t>
+          <t>12/08/2023 15:52</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2.25</v>
+        <v>2.56</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>05/08/2023 18:24</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>1.87</v>
+        <v>3.06</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>12/08/2023 15:17</t>
+          <t>12/08/2023 15:32</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-bolton/ng4ydJPm/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-wycombe/GYehhyPC/</t>
         </is>
       </c>
     </row>
@@ -2137,71 +2137,71 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J19" t="n">
-        <v>2.77</v>
+        <v>2.44</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>05/08/2023 18:24</t>
+          <t>06/08/2023 23:12</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>12/08/2023 15:32</t>
+          <t>12/08/2023 15:55</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.43</v>
+        <v>3.31</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>05/08/2023 18:24</t>
+          <t>06/08/2023 23:12</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.26</v>
+        <v>3.15</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>12/08/2023 15:52</t>
+          <t>12/08/2023 15:55</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>2.56</v>
+        <v>3.03</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>05/08/2023 18:24</t>
+          <t>06/08/2023 23:12</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>3.06</v>
+        <v>2.45</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>12/08/2023 15:32</t>
+          <t>12/08/2023 15:55</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-wycombe/GYehhyPC/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-portsmouth/MBdlgH96/</t>
         </is>
       </c>
     </row>
@@ -2229,30 +2229,30 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>2.08</v>
+        <v>2.55</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>06/08/2023 23:12</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>1.93</v>
+        <v>2.24</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2260,15 +2260,15 @@
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.45</v>
+        <v>3.16</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>06/08/2023 23:12</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.59</v>
+        <v>3.32</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -2276,15 +2276,15 @@
         </is>
       </c>
       <c r="R20" t="n">
-        <v>3.67</v>
+        <v>3</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>06/08/2023 23:12</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>4.18</v>
+        <v>3.49</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-carlisle/S8adievJ/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-cambridge-utd/rLcpfcf0/</t>
         </is>
       </c>
     </row>
@@ -2321,30 +2321,30 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1.65</v>
+        <v>2.55</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>06/08/2023 23:12</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>1.92</v>
+        <v>2.24</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2352,15 +2352,15 @@
         </is>
       </c>
       <c r="N21" t="n">
-        <v>4</v>
+        <v>3.31</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>06/08/2023 23:12</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>4.05</v>
+        <v>3.41</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2368,15 +2368,15 @@
         </is>
       </c>
       <c r="R21" t="n">
-        <v>4.78</v>
+        <v>2.87</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>06/08/2023 23:12</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>3.76</v>
+        <v>3.4</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/peterborough-charlton/UDwuGvHJ/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/exeter-blackpool/Qq3uewuf/</t>
         </is>
       </c>
     </row>
@@ -2413,71 +2413,71 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>2.39</v>
+        <v>3.44</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>06/08/2023 23:42</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.73</v>
+        <v>4.44</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
+          <t>12/08/2023 15:17</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>05/08/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
           <t>12/08/2023 15:34</t>
         </is>
       </c>
-      <c r="N22" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>06/08/2023 23:42</t>
-        </is>
-      </c>
-      <c r="P22" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>12/08/2023 00:29</t>
-        </is>
-      </c>
       <c r="R22" t="n">
-        <v>3.06</v>
+        <v>2.25</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>06/08/2023 23:42</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2.7</v>
+        <v>1.87</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>12/08/2023 13:38</t>
+          <t>12/08/2023 15:17</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/port-vale-reading/84xqFbWP/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-bolton/ng4ydJPm/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
-        <v>2.56</v>
+        <v>5.17</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>06/08/2023 23:42</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.07</v>
+        <v>4.14</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>12/08/2023 15:55</t>
+          <t>12/08/2023 15:43</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.38</v>
+        <v>3.9</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>06/08/2023 23:42</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.27</v>
+        <v>3.66</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>12/08/2023 15:55</t>
+          <t>12/08/2023 15:43</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.88</v>
+        <v>1.68</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>06/08/2023 23:42</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>4.07</v>
+        <v>1.93</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>12/08/2023 15:55</t>
+          <t>12/08/2023 15:43</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/stevenage-shrewsbury/0dUAAIvs/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/burton-derby/hW4XdaAs/</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -2605,14 +2605,14 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1.96</v>
+        <v>2.56</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>12/08/2023 15:24</t>
+          <t>12/08/2023 15:55</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.66</v>
+        <v>3.38</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.22</v>
+        <v>3.27</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>12/08/2023 15:24</t>
+          <t>12/08/2023 15:55</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3.82</v>
+        <v>2.88</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>4.2</v>
+        <v>4.07</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>12/08/2023 15:24</t>
+          <t>12/08/2023 15:55</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/wigan-northampton/vmTE9xfm/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/stevenage-shrewsbury/0dUAAIvs/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>2.44</v>
+        <v>3.29</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>06/08/2023 23:12</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>3.25</v>
+        <v>3.41</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>12/08/2023 15:55</t>
+          <t>12/08/2023 15:57</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.31</v>
+        <v>3.36</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>06/08/2023 23:12</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.15</v>
+        <v>3.37</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>12/08/2023 15:55</t>
+          <t>12/08/2023 15:57</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>3.03</v>
+        <v>2.26</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>06/08/2023 23:12</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>12/08/2023 15:55</t>
+          <t>12/08/2023 15:11</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-portsmouth/MBdlgH96/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bristol-rovers-barnsley/tfx4ERuF/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,14 +3065,14 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>2.07</v>
+        <v>1.85</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.28</v>
+        <v>1.96</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>15/08/2023 20:43</t>
+          <t>15/08/2023 19:25</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.57</v>
+        <v>3.59</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.55</v>
+        <v>3.43</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>15/08/2023 20:41</t>
+          <t>15/08/2023 19:25</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>3.56</v>
+        <v>4.41</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>3.18</v>
+        <v>4.27</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>15/08/2023 20:43</t>
+          <t>15/08/2023 19:25</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/charlton-bristol-rovers/SrvESH0P/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/derby-oxford-utd/44VuOy9t/</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -3157,14 +3157,14 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>2.68</v>
+        <v>2.07</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.71</v>
+        <v>2.28</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>15/08/2023 20:02</t>
+          <t>15/08/2023 20:43</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.26</v>
+        <v>3.57</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,15 +3188,15 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.24</v>
+        <v>3.55</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>15/08/2023 18:42</t>
+          <t>15/08/2023 20:41</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>2.76</v>
+        <v>3.56</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>2.81</v>
+        <v>3.18</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>15/08/2023 20:02</t>
+          <t>15/08/2023 20:43</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/carlisle-wigan/EujW3YNO/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/charlton-bristol-rovers/SrvESH0P/</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -3249,14 +3249,14 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>2.24</v>
+        <v>2.68</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.79</v>
+        <v>2.71</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>15/08/2023 20:40</t>
+          <t>15/08/2023 20:02</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.31</v>
+        <v>3.26</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.11</v>
+        <v>3.24</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>15/08/2023 20:40</t>
+          <t>15/08/2023 18:42</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>3.39</v>
+        <v>2.76</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>2.83</v>
+        <v>2.81</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>15/08/2023 20:40</t>
+          <t>15/08/2023 20:02</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-stevenage/zkiS4E8I/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/carlisle-wigan/EujW3YNO/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>1.71</v>
+        <v>2.24</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>1.69</v>
+        <v>2.79</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>15/08/2023 20:41</t>
+          <t>15/08/2023 20:40</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.84</v>
+        <v>3.31</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.98</v>
+        <v>3.11</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>15/08/2023 20:43</t>
+          <t>15/08/2023 20:40</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>4.97</v>
+        <v>3.39</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>5.09</v>
+        <v>2.83</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>15/08/2023 20:43</t>
+          <t>15/08/2023 20:40</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bolton-fleetwood-town/UyMR6zv6/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-stevenage/zkiS4E8I/</t>
         </is>
       </c>
     </row>
@@ -3425,22 +3425,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>1.97</v>
+        <v>1.69</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>15/08/2023 20:44</t>
+          <t>15/08/2023 20:41</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>4.03</v>
+        <v>3.84</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.57</v>
+        <v>3.98</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="R33" t="n">
-        <v>5.15</v>
+        <v>4.97</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,16 +3480,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>4.04</v>
+        <v>5.09</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>15/08/2023 20:44</t>
+          <t>15/08/2023 20:43</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/blackpool-port-vale/zFMN7GOa/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bolton-fleetwood-town/UyMR6zv6/</t>
         </is>
       </c>
     </row>
@@ -3517,22 +3517,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,48 +3540,48 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2.13</v>
+        <v>1.97</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
+          <t>15/08/2023 20:44</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>12/08/2023 16:13</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
           <t>15/08/2023 20:43</t>
         </is>
       </c>
-      <c r="N34" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="O34" t="inlineStr">
+      <c r="R34" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="S34" t="inlineStr">
         <is>
           <t>12/08/2023 16:13</t>
         </is>
       </c>
-      <c r="P34" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>15/08/2023 20:43</t>
-        </is>
-      </c>
-      <c r="R34" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>12/08/2023 16:13</t>
-        </is>
-      </c>
       <c r="T34" t="n">
-        <v>3.5</v>
+        <v>4.04</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>15/08/2023 20:43</t>
+          <t>15/08/2023 20:44</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/barnsley-peterborough/MBIJ8d9g/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/blackpool-port-vale/zFMN7GOa/</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -3617,14 +3617,14 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J35" t="n">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.96</v>
+        <v>2.13</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>15/08/2023 19:25</t>
+          <t>15/08/2023 20:43</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.59</v>
+        <v>3.38</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.43</v>
+        <v>3.58</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>15/08/2023 19:25</t>
+          <t>15/08/2023 20:43</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>4.41</v>
+        <v>3.29</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>4.27</v>
+        <v>3.5</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>15/08/2023 19:25</t>
+          <t>15/08/2023 20:43</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/derby-oxford-utd/44VuOy9t/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/barnsley-peterborough/MBIJ8d9g/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>1.46</v>
+        <v>2.21</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1.4</v>
+        <v>3.27</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>19/08/2023 15:55</t>
+          <t>19/08/2023 15:57</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>4.32</v>
+        <v>3.38</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>4.71</v>
+        <v>3.27</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>19/08/2023 15:55</t>
+          <t>19/08/2023 15:57</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>6.54</v>
+        <v>3.2</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>8.869999999999999</v>
+        <v>2.37</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>19/08/2023 15:55</t>
+          <t>19/08/2023 15:57</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-cheltenham/82yuXWiB/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/reading-stevenage/GSzqWj7H/</t>
         </is>
       </c>
     </row>
@@ -4069,71 +4069,71 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Lincoln</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
         <v>1</v>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Peterborough</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
       <c r="J40" t="n">
-        <v>3.21</v>
+        <v>2.68</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>15/08/2023 21:13</t>
+          <t>15/08/2023 21:12</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>3.32</v>
+        <v>2.93</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>19/08/2023 15:55</t>
+          <t>19/08/2023 15:27</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.41</v>
+        <v>3.11</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>15/08/2023 21:13</t>
+          <t>15/08/2023 21:12</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.58</v>
+        <v>3.14</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>19/08/2023 15:55</t>
+          <t>19/08/2023 15:27</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>2.28</v>
+        <v>2.74</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>15/08/2023 21:13</t>
+          <t>15/08/2023 21:12</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>2.21</v>
+        <v>2.68</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>19/08/2023 15:55</t>
+          <t>19/08/2023 15:27</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/northampton-peterborough/UBxyYCx5/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-lincoln-city/fJZnVAMN/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>1.96</v>
+        <v>1.46</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>19/08/2023 15:58</t>
+          <t>19/08/2023 15:55</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.52</v>
+        <v>4.32</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.48</v>
+        <v>4.71</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>19/08/2023 15:58</t>
+          <t>19/08/2023 15:55</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>3.97</v>
+        <v>6.54</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>3.42</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>19/08/2023 15:58</t>
+          <t>19/08/2023 15:55</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/barnsley-oxford-utd/SrG5IXxI/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-cheltenham/82yuXWiB/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>1.48</v>
+        <v>3.21</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.68</v>
+        <v>3.32</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>19/08/2023 15:56</t>
+          <t>19/08/2023 15:55</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>4.3</v>
+        <v>3.41</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.93</v>
+        <v>3.58</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>19/08/2023 15:56</t>
+          <t>19/08/2023 15:55</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>6.29</v>
+        <v>2.28</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>5.4</v>
+        <v>2.21</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>19/08/2023 15:56</t>
+          <t>19/08/2023 15:55</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/blackpool-leyton-orient/M5F9HihO/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/northampton-peterborough/UBxyYCx5/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>2.21</v>
+        <v>1.48</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>3.27</v>
+        <v>1.73</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>19/08/2023 15:57</t>
+          <t>19/08/2023 15:56</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.38</v>
+        <v>4.42</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.27</v>
+        <v>3.95</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>19/08/2023 15:57</t>
+          <t>19/08/2023 15:56</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>3.2</v>
+        <v>6.88</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.37</v>
+        <v>4.87</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>19/08/2023 15:57</t>
+          <t>19/08/2023 15:56</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/reading-stevenage/GSzqWj7H/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/derby-fleetwood-town/nmmWYhNb/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="I44" t="n">
+        <v>3</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>15/08/2023 21:13</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
         <v>2</v>
       </c>
-      <c r="J44" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>15/08/2023 21:12</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>2.81</v>
-      </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>19/08/2023 15:58</t>
+          <t>19/08/2023 13:06</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.17</v>
+        <v>3.53</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>15/08/2023 21:12</t>
+          <t>15/08/2023 21:13</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.32</v>
+        <v>3.65</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>19/08/2023 15:57</t>
+          <t>19/08/2023 13:06</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2.92</v>
+        <v>3.96</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>15/08/2023 21:12</t>
+          <t>15/08/2023 21:13</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.66</v>
+        <v>3.84</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>19/08/2023 15:58</t>
+          <t>19/08/2023 14:49</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/carlisle-exeter/vNqOzFhn/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/charlton-port-vale/YqqSZY7h/</t>
         </is>
       </c>
     </row>
@@ -4529,71 +4529,71 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Exeter</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
         <v>2</v>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Port Vale</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>3</v>
-      </c>
       <c r="J45" t="n">
-        <v>1.96</v>
+        <v>2.6</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>15/08/2023 21:13</t>
+          <t>15/08/2023 21:12</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2</v>
+        <v>2.81</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>19/08/2023 13:06</t>
+          <t>19/08/2023 15:58</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.53</v>
+        <v>3.17</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>15/08/2023 21:13</t>
+          <t>15/08/2023 21:12</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.65</v>
+        <v>3.32</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>19/08/2023 13:06</t>
+          <t>19/08/2023 15:57</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>3.96</v>
+        <v>2.92</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>15/08/2023 21:13</t>
+          <t>15/08/2023 21:12</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>3.84</v>
+        <v>2.66</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>19/08/2023 14:49</t>
+          <t>19/08/2023 15:58</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/charlton-port-vale/YqqSZY7h/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/carlisle-exeter/vNqOzFhn/</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -4721,14 +4721,14 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>1.81</v>
+        <v>1.48</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,15 +4736,15 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.94</v>
+        <v>1.68</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>19/08/2023 15:41</t>
+          <t>19/08/2023 15:56</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.6</v>
+        <v>3.93</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>19/08/2023 15:41</t>
+          <t>19/08/2023 15:56</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>3.94</v>
+        <v>6.29</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>4.12</v>
+        <v>5.4</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>19/08/2023 15:41</t>
+          <t>19/08/2023 15:56</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/wycombe-burton/xrPiUUyU/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/blackpool-leyton-orient/M5F9HihO/</t>
         </is>
       </c>
     </row>
@@ -4805,71 +4805,71 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J48" t="n">
-        <v>2.68</v>
+        <v>1.96</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>15/08/2023 21:12</t>
+          <t>15/08/2023 21:13</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2.93</v>
+        <v>2.2</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>19/08/2023 15:27</t>
+          <t>19/08/2023 15:58</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.11</v>
+        <v>3.52</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>15/08/2023 21:12</t>
+          <t>15/08/2023 21:13</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.14</v>
+        <v>3.48</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>19/08/2023 15:27</t>
+          <t>19/08/2023 15:58</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>2.74</v>
+        <v>3.97</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>15/08/2023 21:12</t>
+          <t>15/08/2023 21:13</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>2.68</v>
+        <v>3.42</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>19/08/2023 15:27</t>
+          <t>19/08/2023 15:58</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-lincoln-city/fJZnVAMN/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/barnsley-oxford-utd/SrG5IXxI/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>1.48</v>
+        <v>1.81</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.73</v>
+        <v>1.94</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>19/08/2023 15:56</t>
+          <t>19/08/2023 15:41</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>4.42</v>
+        <v>3.9</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>19/08/2023 15:56</t>
+          <t>19/08/2023 15:41</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>6.88</v>
+        <v>3.94</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>4.87</v>
+        <v>4.12</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>19/08/2023 15:56</t>
+          <t>19/08/2023 15:41</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/derby-fleetwood-town/nmmWYhNb/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/wycombe-burton/xrPiUUyU/</t>
         </is>
       </c>
     </row>
@@ -5081,71 +5081,71 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="I51" t="n">
         <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>2.29</v>
+        <v>3.44</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>20/08/2023 16:42</t>
+          <t>19/08/2023 16:13</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.86</v>
+        <v>4.38</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>26/08/2023 15:36</t>
+          <t>26/08/2023 15:44</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.32</v>
+        <v>3.45</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>20/08/2023 16:42</t>
+          <t>19/08/2023 16:13</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.28</v>
+        <v>3.59</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>26/08/2023 15:49</t>
+          <t>26/08/2023 15:44</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>3.1</v>
+        <v>2.16</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>20/08/2023 16:42</t>
+          <t>19/08/2023 16:13</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>2.64</v>
+        <v>1.89</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>26/08/2023 15:49</t>
+          <t>26/08/2023 15:44</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-northampton/6c35mhxh/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/burton-bolton/S641lYMo/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="I52" t="n">
         <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>2.03</v>
+        <v>2.29</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,48 +5196,48 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2</v>
+        <v>2.86</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
+          <t>26/08/2023 15:36</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>20/08/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
           <t>26/08/2023 15:49</t>
         </is>
       </c>
-      <c r="N52" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="O52" t="inlineStr">
+      <c r="R52" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S52" t="inlineStr">
         <is>
           <t>20/08/2023 16:42</t>
         </is>
       </c>
-      <c r="P52" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="Q52" t="inlineStr">
+      <c r="T52" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="U52" t="inlineStr">
         <is>
           <t>26/08/2023 15:49</t>
         </is>
       </c>
-      <c r="R52" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>20/08/2023 16:42</t>
-        </is>
-      </c>
-      <c r="T52" t="n">
-        <v>4.01</v>
-      </c>
-      <c r="U52" t="inlineStr">
-        <is>
-          <t>26/08/2023 15:49</t>
-        </is>
-      </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/exeter-reading/OYcAnCib/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-northampton/6c35mhxh/</t>
         </is>
       </c>
     </row>
@@ -5357,71 +5357,71 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="I54" t="n">
         <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>3.44</v>
+        <v>2.03</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>19/08/2023 16:13</t>
+          <t>20/08/2023 16:42</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>4.38</v>
+        <v>2</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>26/08/2023 15:44</t>
+          <t>26/08/2023 15:49</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.45</v>
+        <v>3.46</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>19/08/2023 16:13</t>
+          <t>20/08/2023 16:42</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.59</v>
+        <v>3.49</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>26/08/2023 15:44</t>
+          <t>26/08/2023 15:49</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>2.16</v>
+        <v>3.56</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>19/08/2023 16:13</t>
+          <t>20/08/2023 16:42</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>1.89</v>
+        <v>4.01</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>26/08/2023 15:44</t>
+          <t>26/08/2023 15:49</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/burton-bolton/S641lYMo/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/exeter-reading/OYcAnCib/</t>
         </is>
       </c>
     </row>
@@ -5449,71 +5449,71 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>1.76</v>
+        <v>2.5</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>19/08/2023 16:13</t>
+          <t>20/08/2023 16:42</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>1.79</v>
+        <v>2.87</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>26/08/2023 15:55</t>
+          <t>26/08/2023 15:46</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.81</v>
+        <v>3.14</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>19/08/2023 16:13</t>
+          <t>20/08/2023 16:42</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.94</v>
+        <v>3.15</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>26/08/2023 15:59</t>
+          <t>26/08/2023 13:54</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>4.67</v>
+        <v>3.08</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>19/08/2023 16:13</t>
+          <t>20/08/2023 16:42</t>
         </is>
       </c>
       <c r="T55" t="n">
-        <v>4.49</v>
+        <v>2.73</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>26/08/2023 15:59</t>
+          <t>26/08/2023 15:46</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-charlton/zVSkSs6q/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-blackpool/fXELqAyH/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>2.5</v>
+        <v>2.19</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,15 +5564,15 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>2.87</v>
+        <v>2.68</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>26/08/2023 15:46</t>
+          <t>26/08/2023 15:51</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.14</v>
+        <v>3.34</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,15 +5580,15 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>26/08/2023 13:54</t>
+          <t>26/08/2023 15:51</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>3.08</v>
+        <v>3.27</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,16 +5596,16 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>2.73</v>
+        <v>2.84</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>26/08/2023 15:46</t>
+          <t>26/08/2023 15:51</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-blackpool/fXELqAyH/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-cambridge-utd/dndIpjMA/</t>
         </is>
       </c>
     </row>
@@ -5633,71 +5633,71 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J57" t="n">
-        <v>2.52</v>
+        <v>2.87</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>20/08/2023 16:42</t>
+          <t>19/08/2023 16:13</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>2.3</v>
+        <v>2.33</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>26/08/2023 15:50</t>
+          <t>26/08/2023 15:52</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.41</v>
+        <v>3.29</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>20/08/2023 16:42</t>
+          <t>19/08/2023 16:13</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.61</v>
+        <v>3.43</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>26/08/2023 15:50</t>
+          <t>26/08/2023 15:38</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>2.84</v>
+        <v>2.57</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>20/08/2023 16:42</t>
+          <t>19/08/2023 16:13</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>3.11</v>
+        <v>3.2</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>26/08/2023 15:50</t>
+          <t>26/08/2023 15:52</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/wigan-barnsley/Oj9plPS2/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/peterborough-derby/ELRgR1Lk/</t>
         </is>
       </c>
     </row>
@@ -5725,22 +5725,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>2.19</v>
+        <v>2.58</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,48 +5748,48 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2.68</v>
+        <v>2.57</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
+          <t>26/08/2023 15:52</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>20/08/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
           <t>26/08/2023 15:51</t>
         </is>
       </c>
-      <c r="N58" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="O58" t="inlineStr">
+      <c r="R58" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S58" t="inlineStr">
         <is>
           <t>20/08/2023 16:42</t>
         </is>
       </c>
-      <c r="P58" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>26/08/2023 15:51</t>
-        </is>
-      </c>
-      <c r="R58" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>20/08/2023 16:42</t>
-        </is>
-      </c>
       <c r="T58" t="n">
-        <v>2.84</v>
+        <v>2.93</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>26/08/2023 15:51</t>
+          <t>26/08/2023 15:52</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-cambridge-utd/dndIpjMA/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/stevenage-portsmouth/MoV1Puj2/</t>
         </is>
       </c>
     </row>
@@ -5817,22 +5817,22 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J59" t="n">
-        <v>1.92</v>
+        <v>2.52</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,15 +5840,15 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>2.29</v>
+        <v>2.3</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>26/08/2023 15:18</t>
+          <t>26/08/2023 15:50</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.51</v>
+        <v>3.41</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5856,15 +5856,15 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.44</v>
+        <v>3.61</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>26/08/2023 15:18</t>
+          <t>26/08/2023 15:50</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>4.18</v>
+        <v>2.84</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>3.27</v>
+        <v>3.11</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>26/08/2023 15:18</t>
+          <t>26/08/2023 15:50</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/port-vale-carlisle/reWcQLzd/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/wigan-barnsley/Oj9plPS2/</t>
         </is>
       </c>
     </row>
@@ -5909,7 +5909,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -5917,14 +5917,14 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>2.87</v>
+        <v>1.76</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.33</v>
+        <v>1.79</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>26/08/2023 15:52</t>
+          <t>26/08/2023 15:55</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.29</v>
+        <v>3.81</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.43</v>
+        <v>3.94</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>26/08/2023 15:38</t>
+          <t>26/08/2023 15:59</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>2.57</v>
+        <v>4.67</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>3.2</v>
+        <v>4.49</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>26/08/2023 15:52</t>
+          <t>26/08/2023 15:59</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/peterborough-derby/ELRgR1Lk/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-charlton/zVSkSs6q/</t>
         </is>
       </c>
     </row>
@@ -6001,22 +6001,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>2.58</v>
+        <v>1.92</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.57</v>
+        <v>2.29</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>26/08/2023 15:52</t>
+          <t>26/08/2023 15:18</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.24</v>
+        <v>3.51</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.31</v>
+        <v>3.44</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>26/08/2023 15:51</t>
+          <t>26/08/2023 15:18</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>2.75</v>
+        <v>4.18</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>2.93</v>
+        <v>3.27</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>26/08/2023 15:52</t>
+          <t>26/08/2023 15:18</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/stevenage-portsmouth/MoV1Puj2/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/port-vale-carlisle/reWcQLzd/</t>
         </is>
       </c>
     </row>
@@ -8485,7 +8485,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="G88" t="n">
@@ -8493,14 +8493,14 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="I88" t="n">
         <v>3</v>
       </c>
       <c r="J88" t="n">
-        <v>2.15</v>
+        <v>1.88</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -8508,15 +8508,15 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>2.43</v>
+        <v>2.04</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>19/09/2023 20:44</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.64</v>
+        <v>3.59</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -8524,15 +8524,15 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.52</v>
+        <v>3.42</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>19/09/2023 20:44</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>3.12</v>
+        <v>4.28</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
@@ -8540,16 +8540,16 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>2.96</v>
+        <v>3.97</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>19/09/2023 20:44</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/barnsley-portsmouth/rDiXc0dR/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/port-vale-burton/ryzKldJD/</t>
         </is>
       </c>
     </row>
@@ -8577,22 +8577,22 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="G89" t="n">
+        <v>2</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Portsmouth</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
         <v>3</v>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Cheltenham</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
       <c r="J89" t="n">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -8600,15 +8600,15 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>1.47</v>
+        <v>2.43</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>19/09/2023 20:41</t>
+          <t>19/09/2023 20:44</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>4.39</v>
+        <v>3.64</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -8616,15 +8616,15 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>4.61</v>
+        <v>3.52</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>19/09/2023 20:41</t>
+          <t>19/09/2023 20:44</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>5.78</v>
+        <v>3.12</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
@@ -8632,16 +8632,16 @@
         </is>
       </c>
       <c r="T89" t="n">
-        <v>7</v>
+        <v>2.96</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>19/09/2023 20:41</t>
+          <t>19/09/2023 20:44</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/peterborough-cheltenham/UXVFkx47/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/barnsley-portsmouth/rDiXc0dR/</t>
         </is>
       </c>
     </row>
@@ -8669,71 +8669,1175 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>3</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Cheltenham</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>19/09/2023 20:41</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>19/09/2023 20:41</t>
+        </is>
+      </c>
+      <c r="R90" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T90" t="n">
+        <v>7</v>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>19/09/2023 20:41</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/peterborough-cheltenham/UXVFkx47/</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45192.66666666666</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Oxford Utd</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>3</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Exeter</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:31</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:31</t>
+        </is>
+      </c>
+      <c r="R91" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T91" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:31</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-exeter/hCAxehcp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45192.66666666666</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>4</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>19/09/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>19/09/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:58</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>19/09/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T92" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:58</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/blackpool-reading/fHAxa1bI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45192.66666666666</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Bolton</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>1</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>19/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:54</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>19/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:54</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>19/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:54</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/bolton-peterborough/WtY5sZSp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45192.66666666666</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Bristol Rovers</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>4</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Wigan</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>19/09/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:48</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>19/09/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:37</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>19/09/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T94" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:48</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/bristol-rovers-wigan/WYws6I5o/</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45192.66666666666</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Burton</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>1</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Fleetwood</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>19/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:37</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>19/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:46</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>19/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T95" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:46</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/burton-fleetwood-town/APxo5xLi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45192.66666666666</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Cambridge Utd</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>1</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
           <t>Port Vale</t>
         </is>
       </c>
-      <c r="G90" t="n">
+      <c r="I96" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>19/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:43</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>19/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:48</t>
+        </is>
+      </c>
+      <c r="R96" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>19/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T96" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:48</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-port-vale/4nxk4dzb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45192.66666666666</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Carlisle</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Derby</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
         <v>2</v>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>Burton</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J97" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>19/09/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:35</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>19/09/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:35</t>
+        </is>
+      </c>
+      <c r="R97" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>19/09/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T97" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:35</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/carlisle-derby/Iktg3Gk4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45192.66666666666</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Charlton</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
         <v>3</v>
       </c>
-      <c r="J90" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="K90" t="inlineStr">
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Wycombe</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="K98" t="inlineStr">
         <is>
           <t>16/09/2023 17:13</t>
         </is>
       </c>
-      <c r="L90" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>19/09/2023 20:41</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="O90" t="inlineStr">
+      <c r="L98" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:40</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O98" t="inlineStr">
         <is>
           <t>16/09/2023 17:13</t>
         </is>
       </c>
-      <c r="P90" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="Q90" t="inlineStr">
-        <is>
-          <t>19/09/2023 20:41</t>
-        </is>
-      </c>
-      <c r="R90" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="S90" t="inlineStr">
+      <c r="P98" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:39</t>
+        </is>
+      </c>
+      <c r="R98" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="S98" t="inlineStr">
         <is>
           <t>16/09/2023 17:13</t>
         </is>
       </c>
-      <c r="T90" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="U90" t="inlineStr">
-        <is>
-          <t>19/09/2023 20:41</t>
-        </is>
-      </c>
-      <c r="V90" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/england/league-one/port-vale-burton/ryzKldJD/</t>
+      <c r="T98" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:40</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/charlton-wycombe/0EVc2z5A/</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45192.66666666666</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Cheltenham</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Stevenage</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>3</v>
+      </c>
+      <c r="J99" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>19/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>19/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R99" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>19/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T99" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-stevenage/v5U11fKG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45192.66666666666</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Leyton Orient</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>1</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Shrewsbury</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>19/09/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:21</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>19/09/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:46</t>
+        </is>
+      </c>
+      <c r="R100" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>19/09/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T100" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:46</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-shrewsbury/8vZ50EZM/</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45192.66666666666</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Northampton</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>1</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>2</v>
+      </c>
+      <c r="J101" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>19/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:56</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>19/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:33</t>
+        </is>
+      </c>
+      <c r="R101" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>19/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T101" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:56</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/northampton-barnsley/nVX9aYlT/</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45192.66666666666</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Portsmouth</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>2</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Lincoln</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>19/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:32</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>19/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:32</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>19/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T102" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:32</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-lincoln-city/jcTufCCj/</t>
         </is>
       </c>
     </row>
